--- a/Zdetl Normal font files/Zdetl Normal Keymapping.xlsx
+++ b/Zdetl Normal font files/Zdetl Normal Keymapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/Zdetl Normal font files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE146BA-C903-3444-8E75-D4387104E12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B507249-5BE7-2346-B77F-E1E88C6D4EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13820" xr2:uid="{E7ED4C78-89EB-C94D-9EA5-8E8FF4724EE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{E7ED4C78-89EB-C94D-9EA5-8E8FF4724EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="zhoglyphs key map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
   <si>
     <t>A</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Ź/</t>
   </si>
 </sst>
 </file>
@@ -608,25 +611,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -949,62 +949,55 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="3.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="11"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
     <col min="6" max="6" width="3" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="11"/>
+    <col min="8" max="8" width="10.83203125" style="7"/>
     <col min="9" max="9" width="2.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="21">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="C1"/>
+      <c r="F1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="17" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1012,25 +1005,25 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1038,25 +1031,25 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1064,13 +1057,13 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1079,7 +1072,7 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1087,13 +1080,13 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1102,7 +1095,7 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1110,25 +1103,25 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1136,13 +1129,13 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1151,7 +1144,7 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1159,7 +1152,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1168,13 +1161,13 @@
       <c r="G9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1182,7 +1175,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1194,7 +1187,7 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1202,13 +1195,13 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1217,7 +1210,7 @@
       <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1225,13 +1218,13 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1240,7 +1233,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1248,13 +1241,13 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1263,7 +1256,7 @@
       <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1271,13 +1264,13 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1286,7 +1279,7 @@
       <c r="J14" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1294,25 +1287,25 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J15" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1320,25 +1313,25 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1346,25 +1339,25 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J17" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1372,25 +1365,25 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="7" t="s">
         <v>101</v>
       </c>
       <c r="J18" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1401,7 +1394,7 @@
       <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1410,7 +1403,7 @@
       <c r="J19" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1421,7 +1414,7 @@
       <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1430,7 +1423,7 @@
       <c r="J20" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1447,7 +1440,7 @@
       <c r="J21" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1464,7 +1457,7 @@
       <c r="J22" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1481,7 +1474,7 @@
       <c r="J23" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1498,7 +1491,7 @@
       <c r="J24" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1515,7 +1508,7 @@
       <c r="J25" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1532,7 +1525,7 @@
       <c r="J26" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1540,7 +1533,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1552,7 +1545,7 @@
       <c r="J27" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1560,7 +1553,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1572,7 +1565,7 @@
       <c r="J28" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1586,13 +1579,13 @@
       <c r="G29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="7" t="s">
         <v>112</v>
       </c>
       <c r="J29" t="s">
         <v>131</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1606,13 +1599,13 @@
       <c r="G30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="7" t="s">
         <v>113</v>
       </c>
       <c r="J30" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1626,13 +1619,13 @@
       <c r="G31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J31" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1646,13 +1639,13 @@
       <c r="G32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J32" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1660,7 +1653,7 @@
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1669,13 +1662,13 @@
       <c r="G33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J33" t="s">
         <v>155</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1683,7 +1676,7 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1692,13 +1685,13 @@
       <c r="G34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="7" t="s">
         <v>116</v>
       </c>
       <c r="J34" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1706,25 +1699,25 @@
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1732,25 +1725,25 @@
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J36" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1758,13 +1751,13 @@
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1773,7 +1766,7 @@
       <c r="J37" t="s">
         <v>159</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="7" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1781,13 +1774,13 @@
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -1796,7 +1789,7 @@
       <c r="J38" t="s">
         <v>160</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1804,25 +1797,25 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J39" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1830,25 +1823,25 @@
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J40" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1859,13 +1852,13 @@
       <c r="G41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>125</v>
+      <c r="H41" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="J41" t="s">
         <v>163</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1879,7 +1872,7 @@
       <c r="J42" t="s">
         <v>164</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1890,7 +1883,7 @@
       <c r="G43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1909,7 +1902,7 @@
       <c r="G45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="7" t="s">
         <v>127</v>
       </c>
     </row>
